--- a/hubdistpeng.xlsx
+++ b/hubdistpeng.xlsx
@@ -489,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="D2">
-        <v>31800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -503,10 +503,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>39800</v>
       </c>
       <c r="D3">
-        <v>39800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -531,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>29870</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>29100</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>29400</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>39800</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>19780</v>
       </c>
       <c r="D12">
-        <v>19780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -685,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>27890</v>
       </c>
       <c r="D16">
-        <v>27890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>20200</v>
       </c>
       <c r="D17">
-        <v>20200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -755,10 +755,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>47800</v>
       </c>
       <c r="D21">
-        <v>47800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
